--- a/SistemaMedicionCalidad/CapaDePresentacion/Excel/nominaa.xlsx
+++ b/SistemaMedicionCalidad/CapaDePresentacion/Excel/nominaa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Rut</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Asignatura</t>
-  </si>
-  <si>
     <t>0018207396-2</t>
   </si>
   <si>
@@ -35,9 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">cesar.aguero@alumnos.uach.cl                      </t>
-  </si>
-  <si>
-    <t>MATEMATICAS I</t>
   </si>
   <si>
     <t>0018802413-0</t>
@@ -453,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
@@ -461,9 +455,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D43"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,11 +771,10 @@
     <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,596 +784,467 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="3" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="3" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="3" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="3" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="3" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="3" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="3" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="3" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="3" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="3" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="3" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="3" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="3" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="3" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="3" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="3" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="3" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="3" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="3" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="3" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
